--- a/exams/aba_grades.xlsx
+++ b/exams/aba_grades.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developments\paramedic_course\exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E24EA67-ABE6-4D3A-810D-4EF887B4CFC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7B840-BD9B-4DB8-9149-07E57DA30F2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3980" xr2:uid="{768F769C-FE6A-41C6-867C-D6E47D2A9820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3980" activeTab="1" xr2:uid="{768F769C-FE6A-41C6-867C-D6E47D2A9820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
   <si>
     <t>אבא</t>
   </si>
@@ -127,7 +126,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -152,21 +151,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -482,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4FC597-FF68-44E2-8F7A-A4789D598F1F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1272,11 +1257,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C41">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$B2&lt;&gt;$C2</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B2=$C2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$B2&lt;&gt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,25 +1270,431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECE5470-3AB1-4B4C-89E8-436D239BEA36}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECDD333-83DA-443B-9904-E37604818E2F}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <f>IF(B2=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <f>SUM(D2:D21)</f>
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D21" si="0">IF(B3=C3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3">
+        <f>5*F2</f>
+        <v>70</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A21" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C21">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B2&lt;&gt;$C2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B2=$C2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B4BDD6-4C91-4C92-9637-2851A47D4DF9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exams/aba_grades.xlsx
+++ b/exams/aba_grades.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developments\paramedic_course\exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7B840-BD9B-4DB8-9149-07E57DA30F2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCA1D3-C774-4F32-950A-9817E34FE404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3980" activeTab="1" xr2:uid="{768F769C-FE6A-41C6-867C-D6E47D2A9820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3980" activeTab="2" xr2:uid="{768F769C-FE6A-41C6-867C-D6E47D2A9820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="final_exam" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="10">
   <si>
     <t>אבא</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>ציון</t>
+  </si>
+  <si>
+    <t>דוד</t>
   </si>
 </sst>
 </file>
@@ -126,7 +130,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1257,10 +1289,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C41">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$B2&lt;&gt;$C2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$B2=$C2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1273,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECDD333-83DA-443B-9904-E37604818E2F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1687,14 +1719,972 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C21">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$B2&lt;&gt;$C2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$B2=$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450CC0E6-5306-4BB1-B16A-07F505841966}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <f>IF(B2=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <f>SUM(D2:D51)</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D41" si="0">IF(B3=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3">
+        <f>2*F2</f>
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A51" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4">
+        <f>IF(B41=C41,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" ref="D42:D51" si="2">IF(B42=C42,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C41">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$B2&lt;&gt;$C2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$B2=$C2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:C51">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B42&lt;&gt;$C42</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B42=$C42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/exams/aba_grades.xlsx
+++ b/exams/aba_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developments\paramedic_course\exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCA1D3-C774-4F32-950A-9817E34FE404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBCE75B-EC4F-4191-A176-91FCC5D6C7A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3980" activeTab="2" xr2:uid="{768F769C-FE6A-41C6-867C-D6E47D2A9820}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="10">
   <si>
     <t>אבא</t>
   </si>
@@ -81,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -116,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1735,7 +1745,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450CC0E6-5306-4BB1-B16A-07F505841966}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1746,17 +1759,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -1775,7 +1788,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <f>SUM(D2:D51)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
@@ -1793,13 +1806,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D41" si="0">IF(B3=C3,1,0)</f>
+        <f t="shared" ref="D3:D40" si="0">IF(B3=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
         <f>2*F2</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -2247,13 +2260,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2264,13 +2279,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2281,13 +2298,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2298,13 +2317,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2315,13 +2336,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2332,7 +2355,9 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
@@ -2349,13 +2374,15 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2366,13 +2393,15 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2383,13 +2412,15 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2400,7 +2431,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
@@ -2417,13 +2450,15 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2434,13 +2469,15 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2451,7 +2488,9 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
       </c>
@@ -2468,13 +2507,15 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2485,13 +2526,15 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4">
         <f>IF(B41=C41,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2502,13 +2545,15 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ref="D42:D51" si="2">IF(B42=C42,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2519,13 +2564,15 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2536,13 +2583,15 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2553,13 +2602,15 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2570,7 +2621,9 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
@@ -2587,13 +2640,15 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2604,13 +2659,15 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2621,13 +2678,15 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2638,13 +2697,15 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2655,7 +2716,9 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C51" s="4" t="s">
         <v>2</v>
       </c>
